--- a/2. Senior Centers MySidewalk Profiles/Links.xlsx
+++ b/2. Senior Centers MySidewalk Profiles/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Senior Centers MySidewalk Profiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\2. Senior Centers MySidewalk Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93AA9AE-A2EC-489D-8C58-E832B6265A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC63234-E32A-4374-8F20-9DA38CF60BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CD0229A-F620-4196-AA79-56E31D946D52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CD0229A-F620-4196-AA79-56E31D946D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Center</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>https://reports.mysidewalk.com/1f9c415316</t>
+  </si>
+  <si>
+    <t>https://reports.mysidewalk.com/b797651eb3</t>
+  </si>
+  <si>
+    <t>FiftyForward Madison Station Senior Center</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2A5125-F05F-4D1D-AAFE-5C491906A55D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +762,17 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -777,6 +794,7 @@
     <hyperlink ref="C15" r:id="rId15" xr:uid="{8284599C-BA1B-4AE4-85A1-E600BDBFC858}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{6FA9DDB7-5C7A-4AF3-B33D-BB614332B76F}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{3A7FD78F-3FD1-4CD0-B1DE-19219398B17A}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{BEF94B51-8B95-49C6-9B0F-F79AC033037B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2. Senior Centers MySidewalk Profiles/Links.xlsx
+++ b/2. Senior Centers MySidewalk Profiles/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\2. Senior Centers MySidewalk Profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC63234-E32A-4374-8F20-9DA38CF60BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1382249-BB30-46A4-977B-C13DFA33C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CD0229A-F620-4196-AA79-56E31D946D52}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CD0229A-F620-4196-AA79-56E31D946D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,24 +656,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -722,35 +722,35 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,18 +766,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{078EC4D0-94D0-4AE8-9067-52415085C9EB}"/>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{078EC4D0-94D0-4AE8-9067-52415085C9EB}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{AE25BAE1-ED32-4F12-A65D-7A50DD4E799B}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{9C6163A9-DEFE-4686-85D3-2A43345F0FD3}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{B1983B9B-9846-433B-984F-FC62CBFF832B}"/>
@@ -785,16 +788,16 @@
     <hyperlink ref="C6" r:id="rId6" xr:uid="{94F62859-4347-4A12-9F27-93BBC84FAC1D}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{7F4DFC42-A5EE-4BCC-86FF-24142302BB11}"/>
     <hyperlink ref="C8" r:id="rId8" xr:uid="{56AF74F2-0998-4A26-8B99-F764C8174D17}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{E435A30F-F0F0-4125-99F0-242249EF5A95}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{31BB6DD4-085A-46E3-A6F1-F5D598B1AD52}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{E435A30F-F0F0-4125-99F0-242249EF5A95}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{31BB6DD4-085A-46E3-A6F1-F5D598B1AD52}"/>
     <hyperlink ref="C11" r:id="rId11" xr:uid="{0AFF706A-C01B-4226-8774-9FCDAEA222CA}"/>
     <hyperlink ref="C12" r:id="rId12" xr:uid="{FF476A73-1011-4E1D-9DD8-16EB21927E70}"/>
     <hyperlink ref="C13" r:id="rId13" xr:uid="{230829C2-048D-429B-B4B8-395C1D102615}"/>
     <hyperlink ref="C14" r:id="rId14" xr:uid="{1AE779F0-21ED-4A99-8247-57A2D3F5F52B}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{8284599C-BA1B-4AE4-85A1-E600BDBFC858}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{6FA9DDB7-5C7A-4AF3-B33D-BB614332B76F}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{8284599C-BA1B-4AE4-85A1-E600BDBFC858}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{6FA9DDB7-5C7A-4AF3-B33D-BB614332B76F}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{3A7FD78F-3FD1-4CD0-B1DE-19219398B17A}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{BEF94B51-8B95-49C6-9B0F-F79AC033037B}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{BEF94B51-8B95-49C6-9B0F-F79AC033037B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
